--- a/shoulder_test/exeloutput/DeathCounts.xlsx
+++ b/shoulder_test/exeloutput/DeathCounts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,23 +436,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Death Count</t>
+          <t>Log Start</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Death Count</t>
+        </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stage1 Death Count</t>
+        </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Stage2 Death Count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stage3 Death Count</t>
+        </is>
       </c>
     </row>
   </sheetData>
